--- a/data/trans_orig/IP11B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AEEAE4B-D074-48F9-A40B-3C49BE3EA31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E12DE2-C6BD-49EC-8A86-7A067291DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F1E95DDC-E39C-4104-AE94-7791382BFE38}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B15BF4D2-6D7C-4205-9974-C7C8C538C8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="516">
   <si>
     <t>Menores según lesión producida por el accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>15,73%</t>
   </si>
   <si>
-    <t>64,66%</t>
+    <t>64,86%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>47,82%</t>
+    <t>38,87%</t>
   </si>
   <si>
     <t>Contusiones, hematomas, esguinces, luxaciones</t>
@@ -119,13 +119,13 @@
     <t>84,27%</t>
   </si>
   <si>
-    <t>35,34%</t>
+    <t>35,14%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>52,18%</t>
+    <t>61,13%</t>
   </si>
   <si>
     <t>Fracturas</t>
@@ -146,1462 +146,1441 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>28,11%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2015 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>16,12%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>37,01%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
+    <t>26,37%</t>
+  </si>
+  <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>48,8%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
   <si>
     <t>56,11%</t>
   </si>
   <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>13,17%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
+    <t>3,57%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>12,86%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -2019,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225ACC7E-FAAC-4F6C-9792-64F918FB9B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F90251E-30D4-4648-9DCF-6A92CDDFB114}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3271,13 +3250,13 @@
         <v>6515</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -3286,13 +3265,13 @@
         <v>4245</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -3301,13 +3280,13 @@
         <v>10760</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3301,13 @@
         <v>31961</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H27" s="7">
         <v>35</v>
@@ -3337,13 +3316,13 @@
         <v>23173</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M27" s="7">
         <v>83</v>
@@ -3352,13 +3331,13 @@
         <v>55135</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3352,13 @@
         <v>5993</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3388,13 +3367,13 @@
         <v>4625</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -3403,13 +3382,13 @@
         <v>10619</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3403,13 @@
         <v>650</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3439,13 +3418,13 @@
         <v>674</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3454,13 +3433,13 @@
         <v>1324</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3454,13 @@
         <v>725</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3496,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3505,13 +3484,13 @@
         <v>725</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3546,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D824CE-B60F-4ECC-9A82-CDA57C2946CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F0D7B-B068-4EC0-B24C-989292DD80B2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3603,7 +3582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3710,13 +3689,13 @@
         <v>1613</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3725,13 +3704,13 @@
         <v>656</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3740,13 +3719,13 @@
         <v>2269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3740,13 @@
         <v>1369</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3791,13 +3770,13 @@
         <v>1369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3791,13 @@
         <v>7789</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -3827,10 +3806,10 @@
         <v>2722</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3842,13 +3821,13 @@
         <v>10511</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3842,13 @@
         <v>1813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3878,13 +3857,13 @@
         <v>675</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3893,13 +3872,13 @@
         <v>2488</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3950,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4001,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4048,13 @@
         <v>2410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -4084,13 +4063,13 @@
         <v>670</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -4099,13 +4078,13 @@
         <v>3081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4099,13 @@
         <v>1872</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -4135,13 +4114,13 @@
         <v>3337</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4150,13 +4129,13 @@
         <v>5209</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4150,13 @@
         <v>30619</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -4186,13 +4165,13 @@
         <v>29550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -4201,13 +4180,13 @@
         <v>60169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4201,13 @@
         <v>7426</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4237,13 +4216,13 @@
         <v>2612</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4252,13 +4231,13 @@
         <v>10038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4252,13 @@
         <v>2567</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -4288,13 +4267,13 @@
         <v>1782</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -4303,13 +4282,13 @@
         <v>4349</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4345,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4360,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4407,13 @@
         <v>1346</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4449,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4458,13 +4437,13 @@
         <v>1346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4458,13 @@
         <v>2363</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4494,13 +4473,13 @@
         <v>1557</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4509,13 +4488,13 @@
         <v>3921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>232</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4653,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4689,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -4719,7 +4698,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,10 +4769,10 @@
         <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -4802,13 +4781,13 @@
         <v>1326</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4817,13 +4796,13 @@
         <v>6695</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,13 +4817,13 @@
         <v>5604</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4853,7 +4832,7 @@
         <v>4895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>47</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>265</v>
@@ -4874,7 +4853,7 @@
         <v>268</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4868,13 @@
         <v>47977</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>271</v>
+        <v>129</v>
       </c>
       <c r="H27" s="7">
         <v>56</v>
@@ -4994,7 +4973,7 @@
         <v>287</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>288</v>
@@ -5012,7 +4991,7 @@
         <v>290</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5021,13 +5000,13 @@
         <v>4349</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,7 +5027,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -5057,13 +5036,13 @@
         <v>702</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5072,13 +5051,13 @@
         <v>702</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>298</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,7 +5113,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCE4F79-7C0D-4E9B-8204-EDD87CF3BA14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A422AC58-046B-4685-8C85-6123FC539AE4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5170,7 +5149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5313,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5307,13 @@
         <v>662</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5343,13 +5322,13 @@
         <v>617</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5358,13 +5337,13 @@
         <v>1279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,7 +5358,7 @@
         <v>1304</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -5394,10 +5373,10 @@
         <v>1840</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -5409,13 +5388,13 @@
         <v>3144</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5409,13 @@
         <v>562</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5460,13 +5439,13 @@
         <v>562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,7 +5547,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5615,13 @@
         <v>741</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>102</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5651,13 +5630,13 @@
         <v>1160</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5666,13 +5645,13 @@
         <v>1901</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5666,13 @@
         <v>3273</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5717,13 +5696,13 @@
         <v>3273</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5738,13 +5717,13 @@
         <v>22366</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5753,13 +5732,13 @@
         <v>10395</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5768,13 +5747,13 @@
         <v>32761</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5789,13 +5768,13 @@
         <v>3478</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5804,13 +5783,13 @@
         <v>4328</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -5819,13 +5798,13 @@
         <v>7806</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5819,13 @@
         <v>905</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -5855,13 +5834,13 @@
         <v>617</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -5870,13 +5849,13 @@
         <v>1522</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5870,13 @@
         <v>626</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5921,13 +5900,13 @@
         <v>626</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6031,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,7 +6046,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6082,7 +6061,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6076,13 @@
         <v>4044</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -6112,7 +6091,7 @@
         <v>1240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -6220,7 +6199,7 @@
         <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6229,13 +6208,13 @@
         <v>4623</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,7 +6250,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6286,7 +6265,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6333,13 @@
         <v>741</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6369,13 +6348,13 @@
         <v>1160</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -6384,13 +6363,13 @@
         <v>1901</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>382</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>383</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6384,13 @@
         <v>3936</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -6420,13 +6399,13 @@
         <v>617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6435,13 +6414,13 @@
         <v>4553</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6435,13 @@
         <v>27714</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H27" s="7">
         <v>21</v>
@@ -6471,13 +6450,13 @@
         <v>13474</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
@@ -6486,13 +6465,13 @@
         <v>41189</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>399</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6486,13 @@
         <v>4041</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -6522,13 +6501,13 @@
         <v>5639</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -6537,13 +6516,13 @@
         <v>9680</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6537,13 @@
         <v>3667</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -6573,13 +6552,13 @@
         <v>2478</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -6588,13 +6567,13 @@
         <v>6145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>414</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6588,13 @@
         <v>626</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6630,7 +6609,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6639,13 +6618,13 @@
         <v>626</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,7 +6680,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6720,7 +6699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC6D2FB-D641-4C7B-A2C0-D8D5B075D165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF9525F-9DDE-4018-9323-4AF0709B96DB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6737,7 +6716,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6850,7 +6829,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6859,7 +6838,7 @@
         <v>656</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -6874,7 +6853,7 @@
         <v>656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
@@ -6901,23 +6880,23 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
@@ -6931,7 +6910,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,7 +6928,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -6961,7 +6940,7 @@
         <v>424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
@@ -6976,7 +6955,7 @@
         <v>1460</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
@@ -7003,23 +6982,23 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
@@ -7033,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,23 +7033,23 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
@@ -7084,7 +7063,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,23 +7084,23 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="M9" s="7">
         <v>0</v>
       </c>
@@ -7135,7 +7114,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,7 +7188,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -7218,13 +7197,13 @@
         <v>1716</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -7233,13 +7212,13 @@
         <v>1716</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7233,13 @@
         <v>1584</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -7269,13 +7248,13 @@
         <v>428</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7284,13 +7263,13 @@
         <v>2013</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,13 +7284,13 @@
         <v>6809</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -7320,13 +7299,13 @@
         <v>7674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -7335,13 +7314,13 @@
         <v>14484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7356,13 +7335,13 @@
         <v>5580</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7371,13 +7350,13 @@
         <v>1195</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>455</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -7386,13 +7365,13 @@
         <v>6776</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,7 +7392,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7428,7 +7407,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7443,7 +7422,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,7 +7443,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7479,7 +7458,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7494,7 +7473,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7541,13 @@
         <v>565</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>461</v>
+        <v>228</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7583,7 +7562,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -7592,13 +7571,13 @@
         <v>565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7613,13 +7592,13 @@
         <v>2670</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>465</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7628,13 +7607,13 @@
         <v>843</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7643,13 +7622,13 @@
         <v>3514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7664,13 +7643,13 @@
         <v>3090</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7679,13 +7658,13 @@
         <v>3194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -7694,13 +7673,13 @@
         <v>6284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7715,13 +7694,13 @@
         <v>1074</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>480</v>
+        <v>264</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -7730,13 +7709,13 @@
         <v>1070</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -7745,13 +7724,13 @@
         <v>2145</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,7 +7751,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7787,7 +7766,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7802,7 +7781,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7838,7 +7817,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7853,7 +7832,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7921,13 +7900,13 @@
         <v>565</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>489</v>
+        <v>325</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -7936,13 +7915,13 @@
         <v>2372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -7951,13 +7930,13 @@
         <v>2937</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7951,13 @@
         <v>4255</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>106</v>
+        <v>491</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7987,13 +7966,13 @@
         <v>1272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>115</v>
+        <v>494</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -8002,13 +7981,13 @@
         <v>5526</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8002,13 @@
         <v>10935</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H27" s="7">
         <v>16</v>
@@ -8038,13 +8017,13 @@
         <v>11292</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M27" s="7">
         <v>29</v>
@@ -8053,13 +8032,13 @@
         <v>22227</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8053,13 @@
         <v>6655</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -8089,13 +8068,13 @@
         <v>2265</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>517</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -8104,13 +8083,13 @@
         <v>8920</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>520</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,7 +8110,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8146,7 +8125,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8161,7 +8140,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,7 +8161,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8197,7 +8176,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8212,7 +8191,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,7 +8247,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP11B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E12DE2-C6BD-49EC-8A86-7A067291DB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CC81ED9-635C-42E0-9299-045AE4E421F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B15BF4D2-6D7C-4205-9974-C7C8C538C8DB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E1AFBC0-0EED-481A-915A-407A57704E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="523">
   <si>
     <t>Menores según lesión producida por el accidente en 2007 (Tasa respuesta: 5,85%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>17,08%</t>
   </si>
   <si>
@@ -95,18 +95,24 @@
     <t>15,73%</t>
   </si>
   <si>
-    <t>64,86%</t>
+    <t>68,83%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>38,87%</t>
+    <t>39,19%</t>
   </si>
   <si>
     <t>Contusiones, hematomas, esguinces, luxaciones</t>
   </si>
   <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -116,16 +122,10 @@
     <t>100%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>61,13%</t>
+    <t>60,81%</t>
   </si>
   <si>
     <t>Fracturas</t>
@@ -140,1453 +140,1474 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
     <t>3,2%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>8,45%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2016 (Tasa respuesta: 4,42%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
   </si>
   <si>
     <t>57,66%</t>
   </si>
   <si>
-    <t>66,62%</t>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>39,07%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2012 (Tasa respuesta: 8,58%)</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2016 (Tasa respuesta: 4,42%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>Menores según lesión producida por el accidente en 2023 (Tasa respuesta: 2,86%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
   </si>
   <si>
     <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F90251E-30D4-4648-9DCF-6A92CDDFB114}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1AC913-C554-4527-AF88-7B366C22354A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2167,34 +2188,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>647</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2218,10 +2239,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>2839</v>
+        <v>3467</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -2233,19 +2254,19 @@
         <v>24</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>3467</v>
+        <v>2839</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -2260,7 +2281,7 @@
         <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,34 +2443,34 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4114</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2839</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4114</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2458,13 +2479,13 @@
         <v>6954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,31 +2496,31 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>36</v>
@@ -2526,10 +2547,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>6515</v>
+        <v>2819</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>40</v>
@@ -2541,10 +2562,10 @@
         <v>42</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>2819</v>
+        <v>6515</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>43</v>
@@ -2577,10 +2598,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>23038</v>
+        <v>12949</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -2592,10 +2613,10 @@
         <v>51</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>12949</v>
+        <v>23038</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>52</v>
@@ -2628,10 +2649,10 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>5994</v>
+        <v>2749</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>58</v>
@@ -2643,10 +2664,10 @@
         <v>60</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>2749</v>
+        <v>5994</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>61</v>
@@ -2682,25 +2703,25 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
@@ -2730,31 +2751,31 @@
         <v>31</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>725</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>74</v>
@@ -2781,34 +2802,34 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7">
+        <v>21046</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7">
         <v>56</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>36922</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>32</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21046</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>88</v>
@@ -2817,13 +2838,13 @@
         <v>57968</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>680</v>
+        <v>732</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>78</v>
@@ -2852,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>80</v>
@@ -2885,34 +2906,34 @@
         <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>778</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2936,10 +2957,10 @@
         <v>21</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>6084</v>
+        <v>6758</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>88</v>
@@ -2948,22 +2969,22 @@
         <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7">
-        <v>6758</v>
+        <v>6084</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -2987,34 +3008,34 @@
         <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1876</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1876</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -3050,22 +3071,22 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3101,22 +3122,22 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3140,34 +3161,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>10144</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>6764</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="7">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7">
-        <v>10144</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -3176,13 +3197,13 @@
         <v>16908</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,31 +3214,31 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>680</v>
+        <v>2587</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>2587</v>
+        <v>680</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>108</v>
@@ -3244,10 +3265,10 @@
         <v>16</v>
       </c>
       <c r="C26" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" s="7">
-        <v>6515</v>
+        <v>4245</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>112</v>
@@ -3259,10 +3280,10 @@
         <v>114</v>
       </c>
       <c r="H26" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>4245</v>
+        <v>6515</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>115</v>
@@ -3295,10 +3316,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="7">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D27" s="7">
-        <v>31961</v>
+        <v>23173</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>121</v>
@@ -3310,10 +3331,10 @@
         <v>123</v>
       </c>
       <c r="H27" s="7">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I27" s="7">
-        <v>23173</v>
+        <v>31961</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>124</v>
@@ -3346,10 +3367,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>5993</v>
+        <v>4625</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>130</v>
@@ -3361,10 +3382,10 @@
         <v>132</v>
       </c>
       <c r="H28" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I28" s="7">
-        <v>4625</v>
+        <v>5993</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>133</v>
@@ -3373,7 +3394,7 @@
         <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="M28" s="7">
         <v>16</v>
@@ -3382,13 +3403,13 @@
         <v>10619</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,31 +3421,31 @@
         <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3433,13 +3454,13 @@
         <v>1324</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,34 +3469,34 @@
         <v>31</v>
       </c>
       <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>725</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3484,13 +3505,13 @@
         <v>725</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,34 +3520,34 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>53</v>
+      </c>
+      <c r="D31" s="7">
+        <v>35304</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7">
         <v>70</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>46525</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="7">
-        <v>53</v>
-      </c>
-      <c r="I31" s="7">
-        <v>35304</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>123</v>
@@ -3535,18 +3556,18 @@
         <v>81829</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3565,7 +3586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8F0D7B-B068-4EC0-B24C-989292DD80B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96AE665-28F2-4333-A7D9-3B387E61BF30}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,7 +3603,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,34 +3704,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>656</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1613</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>656</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3734,34 +3755,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>1369</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3785,10 +3806,10 @@
         <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>7789</v>
+        <v>2722</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>162</v>
@@ -3797,22 +3818,22 @@
         <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7789</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2722</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -3836,10 +3857,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1813</v>
+        <v>675</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>170</v>
@@ -3851,10 +3872,10 @@
         <v>171</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>675</v>
+        <v>1813</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>172</v>
@@ -3899,22 +3920,22 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3950,22 +3971,22 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3989,34 +4010,34 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4053</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>12584</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4053</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -4025,13 +4046,13 @@
         <v>16637</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,31 +4063,31 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2410</v>
+        <v>670</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2410</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>670</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>183</v>
@@ -4084,7 +4105,7 @@
         <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4114,13 @@
         <v>16</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>1872</v>
+        <v>3337</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>187</v>
@@ -4108,10 +4129,10 @@
         <v>188</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>3337</v>
+        <v>1872</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>189</v>
@@ -4144,10 +4165,10 @@
         <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>30619</v>
+        <v>29550</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>195</v>
@@ -4159,10 +4180,10 @@
         <v>197</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>29550</v>
+        <v>30619</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>198</v>
@@ -4195,34 +4216,34 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2612</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>7426</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2612</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4246,10 +4267,10 @@
         <v>30</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>2567</v>
+        <v>1782</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>212</v>
@@ -4261,16 +4282,16 @@
         <v>214</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="7">
-        <v>1782</v>
+        <v>2567</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>216</v>
@@ -4324,7 +4345,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4339,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,34 +4369,34 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7">
+        <v>37951</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7">
         <v>65</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>44894</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>55</v>
-      </c>
-      <c r="I17" s="7">
-        <v>37951</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -4384,13 +4405,13 @@
         <v>82845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,34 +4422,34 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>1346</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>222</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>223</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>1346</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -4443,7 +4464,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,34 +4473,34 @@
         <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2363</v>
+        <v>1557</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>228</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1557</v>
+        <v>2363</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -4488,13 +4509,13 @@
         <v>3921</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,34 +4524,34 @@
         <v>21</v>
       </c>
       <c r="C20" s="7">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6793</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="7">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>9568</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6793</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -4539,13 +4560,13 @@
         <v>16361</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,34 +4575,34 @@
         <v>29</v>
       </c>
       <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>656</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="7">
         <v>3</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>2622</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1</v>
-      </c>
-      <c r="I21" s="7">
-        <v>656</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -4590,13 +4611,13 @@
         <v>3278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,23 +4638,23 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="M22" s="7">
         <v>0</v>
       </c>
@@ -4647,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,34 +4677,34 @@
         <v>31</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>702</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -4692,13 +4713,13 @@
         <v>702</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,34 +4728,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9708</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>15899</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="7">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9708</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -4743,13 +4764,13 @@
         <v>25607</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,34 +4781,34 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1326</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>5369</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1326</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4796,13 +4817,13 @@
         <v>6695</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,34 +4832,34 @@
         <v>16</v>
       </c>
       <c r="C26" s="7">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7">
+        <v>4895</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H26" s="7">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>5604</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H26" s="7">
-        <v>7</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4895</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -4847,13 +4868,13 @@
         <v>10499</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>267</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,34 +4883,34 @@
         <v>21</v>
       </c>
       <c r="C27" s="7">
+        <v>56</v>
+      </c>
+      <c r="D27" s="7">
+        <v>39064</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H27" s="7">
         <v>71</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>47977</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H27" s="7">
-        <v>56</v>
-      </c>
-      <c r="I27" s="7">
-        <v>39064</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M27" s="7">
         <v>127</v>
@@ -4898,13 +4919,13 @@
         <v>87041</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,34 +4934,34 @@
         <v>29</v>
       </c>
       <c r="C28" s="7">
+        <v>6</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3943</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" s="7">
         <v>15</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>11860</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H28" s="7">
-        <v>6</v>
-      </c>
-      <c r="I28" s="7">
-        <v>3943</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -4949,13 +4970,13 @@
         <v>15803</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,34 +4985,34 @@
         <v>30</v>
       </c>
       <c r="C29" s="7">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1782</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" s="7">
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>2567</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H29" s="7">
-        <v>3</v>
-      </c>
-      <c r="I29" s="7">
-        <v>1782</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>290</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>68</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5000,13 +5021,13 @@
         <v>4349</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,34 +5036,34 @@
         <v>31</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>11</v>
+        <v>297</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="7">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -5051,13 +5072,13 @@
         <v>702</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,34 +5087,34 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7">
+        <v>51712</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7">
         <v>105</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>73377</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="7">
-        <v>75</v>
-      </c>
-      <c r="I31" s="7">
-        <v>51712</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>180</v>
@@ -5102,18 +5123,18 @@
         <v>125089</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5132,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A422AC58-046B-4685-8C85-6123FC539AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E3FB2E-7C37-4BFD-9202-30E25BCD2261}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5149,7 +5170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5262,7 +5283,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5277,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5292,7 +5313,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,31 +5325,31 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>662</v>
+        <v>617</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5337,13 +5358,13 @@
         <v>1279</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,34 +5373,34 @@
         <v>21</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1840</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1304</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1840</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5388,13 +5409,13 @@
         <v>3144</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,34 +5424,34 @@
         <v>29</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>562</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5439,13 +5460,13 @@
         <v>562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,7 +5487,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5481,7 +5502,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5496,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,7 +5538,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5532,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5547,7 +5568,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,31 +5580,31 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>2529</v>
+        <v>2457</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2457</v>
+        <v>2529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5592,13 +5613,13 @@
         <v>4986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,34 +5630,34 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1160</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>741</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1160</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5645,13 +5666,13 @@
         <v>1901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,34 +5681,34 @@
         <v>16</v>
       </c>
       <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3273</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>103</v>
+        <v>325</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -5696,13 +5717,13 @@
         <v>3273</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,34 +5732,34 @@
         <v>21</v>
       </c>
       <c r="C13" s="7">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>10395</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" s="7">
         <v>31</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>22366</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H13" s="7">
-        <v>16</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10395</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5747,13 +5768,13 @@
         <v>32761</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,34 +5783,34 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4328</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3478</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4328</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -5798,13 +5819,13 @@
         <v>7806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,10 +5837,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>905</v>
+        <v>617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
@@ -5831,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>617</v>
+        <v>905</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>347</v>
@@ -5864,34 +5885,34 @@
         <v>31</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>626</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5906,7 +5927,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,34 +5936,34 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16500</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7">
         <v>44</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>31390</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16500</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5951,13 +5972,13 @@
         <v>47890</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,22 +6001,22 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -6031,22 +6052,22 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6070,34 +6091,34 @@
         <v>21</v>
       </c>
       <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H20" s="7">
         <v>6</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>4044</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1240</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -6106,13 +6127,13 @@
         <v>5284</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,34 +6142,34 @@
         <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
+        <v>1311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>11</v>
+        <v>363</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1311</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -6157,13 +6178,13 @@
         <v>1311</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,34 +6193,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1861</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H22" s="7">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>2761</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H22" s="7">
-        <v>3</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1861</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -6235,22 +6256,22 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6274,34 +6295,34 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4412</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>6805</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4412</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -6310,13 +6331,13 @@
         <v>11218</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,10 +6348,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>741</v>
+        <v>1160</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>376</v>
@@ -6342,10 +6363,10 @@
         <v>377</v>
       </c>
       <c r="H25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>1160</v>
+        <v>741</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>378</v>
@@ -6369,7 +6390,7 @@
         <v>381</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,34 +6399,34 @@
         <v>16</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>617</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>3936</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>617</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -6414,13 +6435,13 @@
         <v>4553</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,28 +6450,28 @@
         <v>21</v>
       </c>
       <c r="C27" s="7">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
+        <v>13474</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H27" s="7">
         <v>39</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>27714</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="J27" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="H27" s="7">
-        <v>21</v>
-      </c>
-      <c r="I27" s="7">
-        <v>13474</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>393</v>
@@ -6471,7 +6492,7 @@
         <v>396</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,31 +6501,31 @@
         <v>29</v>
       </c>
       <c r="C28" s="7">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5639</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H28" s="7">
         <v>6</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>4041</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H28" s="7">
-        <v>8</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5639</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>402</v>
@@ -6531,10 +6552,10 @@
         <v>30</v>
       </c>
       <c r="C29" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>3667</v>
+        <v>2478</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>406</v>
@@ -6546,10 +6567,10 @@
         <v>408</v>
       </c>
       <c r="H29" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>2478</v>
+        <v>3667</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>409</v>
@@ -6567,13 +6588,13 @@
         <v>6145</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>261</v>
+        <v>412</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,34 +6603,34 @@
         <v>31</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="7">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>414</v>
+        <v>11</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>415</v>
       </c>
       <c r="H30" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>11</v>
+        <v>416</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -6618,13 +6639,13 @@
         <v>626</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,34 +6654,34 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>36</v>
+      </c>
+      <c r="D31" s="7">
+        <v>23369</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7">
         <v>58</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>40724</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="7">
-        <v>36</v>
-      </c>
-      <c r="I31" s="7">
-        <v>23369</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>94</v>
@@ -6669,18 +6690,18 @@
         <v>64093</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6699,7 +6720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF9525F-9DDE-4018-9323-4AF0709B96DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18351BC4-3C91-41EA-9896-2DC5577A8659}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6716,7 +6737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6817,49 +6838,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>420</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>421</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,7 +6901,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6895,7 +6916,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6910,7 +6931,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,13 +6943,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1036</v>
+        <v>430</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>426</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>425</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>24</v>
@@ -6937,31 +6958,31 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>424</v>
+        <v>1350</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>426</v>
+        <v>24</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>427</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>1460</v>
+        <v>1780</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,7 +7003,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6997,7 +7018,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7012,7 +7033,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,7 +7054,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7048,7 +7069,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -7063,7 +7084,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,7 +7105,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -7099,7 +7120,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -7114,7 +7135,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,49 +7144,49 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1082</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>1036</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
       <c r="I10" s="7">
-        <v>1080</v>
+        <v>1350</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2116</v>
+        <v>2432</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,49 +7197,49 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1716</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>1716</v>
+        <v>1854</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,49 +7248,49 @@
         <v>16</v>
       </c>
       <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>422</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
-        <v>1584</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
       <c r="I12" s="7">
-        <v>428</v>
+        <v>1630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>2013</v>
+        <v>2052</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,49 +7299,49 @@
         <v>21</v>
       </c>
       <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>7558</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" s="7">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
-        <v>6809</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
       <c r="I13" s="7">
-        <v>7674</v>
+        <v>7448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>14484</v>
+        <v>15006</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,49 +7350,49 @@
         <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>5580</v>
+        <v>1185</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>453</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>1195</v>
+        <v>5668</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
       </c>
       <c r="N14" s="7">
-        <v>6776</v>
+        <v>6853</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7392,7 +7413,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>428</v>
+        <v>177</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7407,7 +7428,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7422,7 +7443,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7464,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>428</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7458,7 +7479,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>432</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7473,7 +7494,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,49 +7503,49 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7">
+        <v>11019</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7">
         <v>19</v>
       </c>
-      <c r="D17" s="7">
-        <v>13974</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
       <c r="I17" s="7">
-        <v>11014</v>
+        <v>14746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>24989</v>
+        <v>25765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7535,49 +7556,49 @@
         <v>10</v>
       </c>
       <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
-        <v>565</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>586</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,49 +7607,49 @@
         <v>16</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>831</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
-        <v>2670</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
       <c r="I19" s="7">
-        <v>843</v>
+        <v>2744</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>3514</v>
+        <v>3575</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7637,49 +7658,49 @@
         <v>21</v>
       </c>
       <c r="C20" s="7">
+        <v>4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3069</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="H20" s="7">
         <v>3</v>
       </c>
-      <c r="D20" s="7">
-        <v>3090</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
       <c r="I20" s="7">
-        <v>3194</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>6284</v>
+        <v>6568</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,46 +7712,46 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>1074</v>
+        <v>1151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>1070</v>
+        <v>1107</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>2145</v>
+        <v>2259</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7772,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7766,7 +7787,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7781,7 +7802,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,7 +7823,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>481</v>
+        <v>354</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7817,7 +7838,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>355</v>
+        <v>485</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7832,7 +7853,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,49 +7862,49 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5051</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="7">
-        <v>7399</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
       <c r="I24" s="7">
-        <v>5107</v>
+        <v>7937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>12507</v>
+        <v>12988</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,49 +7915,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2506</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>565</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
       <c r="I25" s="7">
-        <v>2372</v>
+        <v>586</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>485</v>
+        <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>2937</v>
+        <v>3092</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7945,49 +7966,49 @@
         <v>16</v>
       </c>
       <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1253</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H26" s="7">
         <v>5</v>
       </c>
-      <c r="D26" s="7">
-        <v>4255</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
       <c r="I26" s="7">
-        <v>1272</v>
+        <v>4374</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>11</v>
+        <v>498</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>5526</v>
+        <v>5627</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,49 +8017,49 @@
         <v>21</v>
       </c>
       <c r="C27" s="7">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7">
+        <v>11056</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="H27" s="7">
         <v>13</v>
       </c>
-      <c r="D27" s="7">
-        <v>10935</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="H27" s="7">
-        <v>16</v>
-      </c>
       <c r="I27" s="7">
-        <v>11292</v>
+        <v>12298</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M27" s="7">
         <v>29</v>
       </c>
       <c r="N27" s="7">
-        <v>22227</v>
+        <v>23354</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,49 +8068,49 @@
         <v>29</v>
       </c>
       <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2336</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H28" s="7">
         <v>10</v>
       </c>
-      <c r="D28" s="7">
-        <v>6655</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
       <c r="I28" s="7">
-        <v>2265</v>
+        <v>6776</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
       </c>
       <c r="N28" s="7">
-        <v>8920</v>
+        <v>9112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>252</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,7 +8131,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8125,7 +8146,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -8140,7 +8161,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8161,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -8176,7 +8197,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -8191,7 +8212,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8200,54 +8221,54 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>26</v>
+      </c>
+      <c r="D31" s="7">
+        <v>17151</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="7">
         <v>29</v>
       </c>
-      <c r="D31" s="7">
-        <v>22410</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="7">
-        <v>26</v>
-      </c>
       <c r="I31" s="7">
-        <v>17201</v>
+        <v>24034</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>55</v>
       </c>
       <c r="N31" s="7">
-        <v>39611</v>
+        <v>41185</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
